--- a/seeder/VcEquipmentVulnerability.xlsx
+++ b/seeder/VcEquipmentVulnerability.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="ZohoSheetWriter"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowHeight="8192" windowWidth="16384"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>vulnerabilityTypes</t>
   </si>
@@ -28,13 +27,13 @@
     <t>impact</t>
   </si>
   <si>
-    <t>vulnarabilityParameter</t>
-  </si>
-  <si>
     <t>references</t>
   </si>
   <si>
     <t>recommendation</t>
+  </si>
+  <si>
+    <t>criteria</t>
   </si>
   <si>
     <t>SSL Certificate Cannot Be Trusted</t>
@@ -103,10 +102,10 @@
     <t>The SSL certificate for this service cannot be trusted.</t>
   </si>
   <si>
-    <t>Device IP Address</t>
-  </si>
-  <si>
     <t>Purchase or generate a proper SSL certificate for this service.</t>
+  </si>
+  <si>
+    <t>VC Equipment</t>
   </si>
   <si>
     <t>TLS Version 1.0 Protocol Detection</t>
@@ -772,28 +771,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -829,340 +825,58 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" style="4" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="38.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="43.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="1" width="32.72"/>
+    <col min="2" max="2" style="1" width="18.41"/>
+    <col min="3" max="3" style="1" width="31.0"/>
+    <col min="4" max="4" style="1" width="38.29"/>
+    <col min="5" max="5" style="1" width="43.72"/>
+    <col min="6" max="6" style="1" width="57.9"/>
+    <col min="7" max="1024" width="10.86"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,11 +895,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="1393.5" customFormat="1" s="1">
+    <row r="2" customHeight="1" ht="1393.0" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1198,15 +912,15 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="314.25" customFormat="1" s="1">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" ht="314.0" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1219,15 +933,15 @@
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="198.75" customFormat="1" s="1">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="199.0" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1240,15 +954,15 @@
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="173.25" customFormat="1" s="1">
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="174.0" customFormat="1" s="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1262,16 +976,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="442.5" customFormat="1" s="1">
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="443.0" customFormat="1" s="1">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1285,16 +999,16 @@
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="442.5" customFormat="1" s="1">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="443.0" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1308,16 +1022,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="455.25" customFormat="1" s="1">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="455.0" customFormat="1" s="1">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1331,16 +1045,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="442.5" customFormat="1" s="1">
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="443.0" customFormat="1" s="1">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1354,16 +1068,16 @@
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="1920" customFormat="1" s="1">
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="1920.0" customFormat="1" s="1">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1377,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1400,16 +1114,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1423,16 +1137,16 @@
         <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1446,16 +1160,16 @@
         <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1469,16 +1183,16 @@
         <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -1492,16 +1206,16 @@
         <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1514,15 +1228,15 @@
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -1535,15 +1249,15 @@
       <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -1556,15 +1270,15 @@
       <c r="D18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
@@ -1577,15 +1291,15 @@
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
@@ -1598,15 +1312,15 @@
       <c r="D20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
@@ -1619,15 +1333,15 @@
       <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
@@ -1640,15 +1354,15 @@
       <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
@@ -1661,15 +1375,15 @@
       <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1682,15 +1396,15 @@
       <c r="D24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -1703,15 +1417,15 @@
       <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -1724,15 +1438,15 @@
       <c r="D26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
@@ -1745,15 +1459,15 @@
       <c r="D27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A28" s="3" t="s">
         <v>93</v>
       </c>
@@ -1766,15 +1480,15 @@
       <c r="D28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
@@ -1787,15 +1501,15 @@
       <c r="D29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
@@ -1808,15 +1522,15 @@
       <c r="D30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A31" s="3" t="s">
         <v>100</v>
       </c>
@@ -1829,15 +1543,15 @@
       <c r="D31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A32" s="3" t="s">
         <v>103</v>
       </c>
@@ -1850,15 +1564,15 @@
       <c r="D32" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A33" s="3" t="s">
         <v>106</v>
       </c>
@@ -1871,15 +1585,15 @@
       <c r="D33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A34" s="3" t="s">
         <v>109</v>
       </c>
@@ -1892,15 +1606,15 @@
       <c r="D34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A35" s="3" t="s">
         <v>112</v>
       </c>
@@ -1913,15 +1627,15 @@
       <c r="D35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A36" s="3" t="s">
         <v>115</v>
       </c>
@@ -1934,15 +1648,15 @@
       <c r="D36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
@@ -1955,15 +1669,15 @@
       <c r="D37" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A38" s="3" t="s">
         <v>122</v>
       </c>
@@ -1976,15 +1690,15 @@
       <c r="D38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A39" s="3" t="s">
         <v>125</v>
       </c>
@@ -1997,15 +1711,15 @@
       <c r="D39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A40" s="3" t="s">
         <v>127</v>
       </c>
@@ -2018,15 +1732,15 @@
       <c r="D40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A41" s="3" t="s">
         <v>127</v>
       </c>
@@ -2039,15 +1753,15 @@
       <c r="D41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A42" s="3" t="s">
         <v>131</v>
       </c>
@@ -2060,15 +1774,15 @@
       <c r="D42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A43" s="3" t="s">
         <v>134</v>
       </c>
@@ -2081,15 +1795,15 @@
       <c r="D43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
@@ -2102,15 +1816,15 @@
       <c r="D44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A45" s="3" t="s">
         <v>139</v>
       </c>
@@ -2123,15 +1837,15 @@
       <c r="D45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A46" s="3" t="s">
         <v>142</v>
       </c>
@@ -2144,15 +1858,15 @@
       <c r="D46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
@@ -2165,15 +1879,15 @@
       <c r="D47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="19.0" customFormat="1" s="1">
       <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
@@ -2186,15 +1900,15 @@
       <c r="D48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst/>
 </worksheet>
 </file>